--- a/Grid_vulnerability/powersystem/PQ_critical_CPF.xlsx
+++ b/Grid_vulnerability/powersystem/PQ_critical_CPF.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Graduation thesis\Grid_vulnerability\powersystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Graduation thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="11064"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
